--- a/Plan Concertado.xlsx
+++ b/Plan Concertado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\ADSI\Luz Eneida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Aprendiz</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">Diseño maquetacion Proyecto </t>
+  </si>
+  <si>
+    <t>Pruebas logueo sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integracion Java </t>
   </si>
 </sst>
 </file>
@@ -207,17 +213,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -509,7 +515,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,18 +527,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -567,136 +573,148 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>15</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>21</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>31</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>25</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/Plan Concertado.xlsx
+++ b/Plan Concertado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Aprendiz</t>
   </si>
@@ -81,6 +81,33 @@
   </si>
   <si>
     <t xml:space="preserve">Integracion Java </t>
+  </si>
+  <si>
+    <t>Angélica Gómez Buitrago</t>
+  </si>
+  <si>
+    <t>Angélica Gomez Buitrago</t>
+  </si>
+  <si>
+    <t>Crud (Administardor) - pruebas logue y Validacion</t>
+  </si>
+  <si>
+    <t>Crud (Usuario) - pruebas logue y Validacion</t>
+  </si>
+  <si>
+    <t>Angélica Gomez Buitrago       Jose Alejandro Sorza</t>
+  </si>
+  <si>
+    <t>Validacion Software (Crud Facturacion) Prueba al genera una factura de compra</t>
+  </si>
+  <si>
+    <t>Validacion Software (Crud Personalizador) Prueba importacion imágenes</t>
+  </si>
+  <si>
+    <t>Validacion Software (Crud Productos) Pruebas visor productos</t>
+  </si>
+  <si>
+    <t>Entrega y presenacion Software</t>
   </si>
 </sst>
 </file>
@@ -198,15 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -223,7 +241,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -515,338 +542,359 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="10" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>31</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>25</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>15</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
         <v>25</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
